--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -396,7 +396,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -404,23 +404,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -428,10 +429,10 @@
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.65234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3777,273 +3778,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1487AF64-25C6-4B5A-BB68-1CB430EB2ACA}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1761B427-9CE6-4889-9605-AA354816FF3A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9238EAF7-5D89-4559-82B8-CC8F2BC7A39E}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -3763,7 +3763,7 @@
         <v>115</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>106</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -326,7 +326,7 @@
     <t>estremiDocumento</t>
   </si>
   <si>
-    <t>Dati della trascrizione</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -427,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,4}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -230,18 +239,33 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,=,2}</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,2}</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,=,1}</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,1}</t>
+  </si>
+  <si>
     <t>Soggetto</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,=,3}</t>
+  </si>
+  <si>
     <t>Assegnazione cognome</t>
   </si>
   <si>
@@ -282,6 +306,9 @@
   </si>
   <si>
     <t>Figlio</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,3}</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -421,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +460,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,65 +482,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -534,3245 +574,3734 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,28 +32,31 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192-bis</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192-bis</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -575,3733 +578,3733 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -107,7 +107,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,4}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
   </si>
   <si>
     <t>Nome</t>
@@ -242,10 +242,10 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,=,2}</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,2}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,=,2</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
   </si>
   <si>
     <t>Padre</t>
@@ -254,10 +254,10 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,=,1}</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,1}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,=,1</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -266,7 +266,7 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,=,3}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
   </si>
   <si>
     <t>Assegnazione cognome</t>
@@ -311,7 +311,7 @@
     <t>Figlio</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,3}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -463,7 +463,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.9375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4200,7 +4200,7 @@
         <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>116</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,48 +267,6 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
-  </si>
-  <si>
-    <t>Assegnazione cognome</t>
-  </si>
-  <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
-    <t>sceltaCognome</t>
-  </si>
-  <si>
-    <t>Precisazione</t>
-  </si>
-  <si>
-    <t>precisazioneCognome</t>
-  </si>
-  <si>
-    <t>Ora nascita</t>
-  </si>
-  <si>
-    <t>oraNascita</t>
-  </si>
-  <si>
-    <t>Minuto nascita</t>
-  </si>
-  <si>
-    <t>minutoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - descrizione</t>
-  </si>
-  <si>
-    <t>Luogo nascita</t>
-  </si>
-  <si>
-    <t>luogoFiliazione</t>
-  </si>
-  <si>
-    <t>Figlio</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
@@ -451,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -704,7 +662,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -713,7 +671,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>31</v>
@@ -727,7 +685,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -736,7 +694,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
@@ -750,7 +708,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -759,7 +717,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>31</v>
@@ -773,7 +731,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -796,7 +754,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -805,7 +763,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>31</v>
@@ -911,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -934,7 +892,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -943,7 +901,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>31</v>
@@ -957,7 +915,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -980,7 +938,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -989,7 +947,7 @@
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>31</v>
@@ -1693,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>75</v>
@@ -1702,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>77</v>
@@ -1739,7 +1697,7 @@
         <v>34</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>75</v>
@@ -1748,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>77</v>
@@ -1923,7 +1881,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>75</v>
@@ -1946,7 +1904,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>75</v>
@@ -1955,7 +1913,7 @@
         <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>77</v>
@@ -1969,7 +1927,7 @@
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>75</v>
@@ -1992,7 +1950,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>75</v>
@@ -2001,7 +1959,7 @@
         <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>77</v>
@@ -2705,7 +2663,7 @@
         <v>27</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>79</v>
@@ -2714,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>81</v>
@@ -2751,7 +2709,7 @@
         <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>79</v>
@@ -2760,7 +2718,7 @@
         <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>81</v>
@@ -2935,7 +2893,7 @@
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>79</v>
@@ -2958,7 +2916,7 @@
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>79</v>
@@ -2967,7 +2925,7 @@
         <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>81</v>
@@ -2981,7 +2939,7 @@
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>79</v>
@@ -3004,7 +2962,7 @@
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>79</v>
@@ -3013,7 +2971,7 @@
         <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>81</v>
@@ -3205,7 +3163,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>27</v>
@@ -3214,7 +3172,7 @@
         <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>30</v>
@@ -3223,12 +3181,12 @@
         <v>13</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>32</v>
@@ -3237,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>33</v>
@@ -3246,475 +3204,475 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>28</v>
@@ -3723,21 +3681,21 @@
         <v>83</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>28</v>
@@ -3746,21 +3704,21 @@
         <v>83</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>28</v>
@@ -3769,113 +3727,113 @@
         <v>83</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>28</v>
@@ -3884,21 +3842,21 @@
         <v>83</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>28</v>
@@ -3907,21 +3865,21 @@
         <v>83</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>28</v>
@@ -3930,21 +3888,21 @@
         <v>83</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>28</v>
@@ -3953,21 +3911,21 @@
         <v>83</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>28</v>
@@ -3976,334 +3934,1001 @@
         <v>83</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,49 +98,49 @@
     <t>Cognome</t>
   </si>
   <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
   </si>
   <si>
     <t>idProvinciaNascita</t>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -639,19 +639,19 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -682,22 +682,22 @@
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -705,22 +705,22 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -728,22 +728,22 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -751,22 +751,22 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -800,10 +800,10 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -812,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -823,10 +823,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -835,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -846,10 +846,10 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -858,7 +858,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -869,10 +869,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -892,10 +892,10 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -915,10 +915,10 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -927,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -938,10 +938,10 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -950,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -961,10 +961,10 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -984,19 +984,19 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1007,10 +1007,10 @@
         <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1030,19 +1030,19 @@
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1053,19 +1053,19 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -1088,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1102,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1125,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1145,13 +1145,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1165,16 +1165,16 @@
         <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -1188,16 +1188,16 @@
         <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1211,16 +1211,16 @@
         <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -1234,16 +1234,16 @@
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1257,16 +1257,16 @@
         <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
@@ -1280,10 +1280,10 @@
         <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>75</v>
@@ -1306,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>75</v>
@@ -1329,7 +1329,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>75</v>
@@ -1352,7 +1352,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>75</v>
@@ -1375,7 +1375,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>75</v>
@@ -1407,7 +1407,7 @@
         <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>76</v>
@@ -1421,7 +1421,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>75</v>
@@ -1444,7 +1444,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>75</v>
@@ -1453,7 +1453,7 @@
         <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>76</v>
@@ -1467,7 +1467,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>75</v>
@@ -1490,7 +1490,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>75</v>
@@ -1499,7 +1499,7 @@
         <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>76</v>
@@ -1513,7 +1513,7 @@
         <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>75</v>
@@ -1536,7 +1536,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>75</v>
@@ -1545,7 +1545,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>76</v>
@@ -1559,7 +1559,7 @@
         <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>75</v>
@@ -1568,7 +1568,7 @@
         <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>76</v>
@@ -1582,7 +1582,7 @@
         <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>75</v>
@@ -1591,7 +1591,7 @@
         <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>76</v>
@@ -1605,7 +1605,7 @@
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>75</v>
@@ -1614,7 +1614,7 @@
         <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>76</v>
@@ -1628,7 +1628,7 @@
         <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>75</v>
@@ -1637,7 +1637,7 @@
         <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>76</v>
@@ -1657,7 +1657,7 @@
         <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1671,7 +1671,7 @@
         <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1680,7 +1680,7 @@
         <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1694,19 @@
         <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>77</v>
@@ -1717,7 +1717,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1726,7 +1726,7 @@
         <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1740,7 +1740,7 @@
         <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1749,7 +1749,7 @@
         <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1763,7 +1763,7 @@
         <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1772,7 +1772,7 @@
         <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1786,10 +1786,10 @@
         <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>75</v>
@@ -1812,7 +1812,7 @@
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>75</v>
@@ -1835,7 +1835,7 @@
         <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>75</v>
@@ -1858,7 +1858,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>75</v>
@@ -1881,7 +1881,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>75</v>
@@ -1904,7 +1904,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>75</v>
@@ -1913,7 +1913,7 @@
         <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>77</v>
@@ -1927,7 +1927,7 @@
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>75</v>
@@ -1950,7 +1950,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>75</v>
@@ -1959,7 +1959,7 @@
         <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>77</v>
@@ -1973,7 +1973,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>75</v>
@@ -1996,7 +1996,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>75</v>
@@ -2005,7 +2005,7 @@
         <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>77</v>
@@ -2019,7 +2019,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>75</v>
@@ -2042,7 +2042,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>75</v>
@@ -2051,7 +2051,7 @@
         <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>77</v>
@@ -2065,7 +2065,7 @@
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>75</v>
@@ -2074,7 +2074,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>77</v>
@@ -2157,13 +2157,13 @@
         <v>27</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
@@ -2177,16 +2177,16 @@
         <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
@@ -2200,16 +2200,16 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>13</v>
@@ -2223,16 +2223,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>13</v>
@@ -2246,16 +2246,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2269,16 +2269,16 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>13</v>
@@ -2292,10 +2292,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>79</v>
@@ -2318,7 +2318,7 @@
         <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>79</v>
@@ -2341,7 +2341,7 @@
         <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>79</v>
@@ -2364,7 +2364,7 @@
         <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>79</v>
@@ -2387,7 +2387,7 @@
         <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>79</v>
@@ -2410,7 +2410,7 @@
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>79</v>
@@ -2419,7 +2419,7 @@
         <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>80</v>
@@ -2433,7 +2433,7 @@
         <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>79</v>
@@ -2456,7 +2456,7 @@
         <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>79</v>
@@ -2465,7 +2465,7 @@
         <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>80</v>
@@ -2479,7 +2479,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>79</v>
@@ -2502,7 +2502,7 @@
         <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>79</v>
@@ -2511,7 +2511,7 @@
         <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>80</v>
@@ -2525,7 +2525,7 @@
         <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>79</v>
@@ -2548,7 +2548,7 @@
         <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>79</v>
@@ -2557,7 +2557,7 @@
         <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>80</v>
@@ -2571,7 +2571,7 @@
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>79</v>
@@ -2580,7 +2580,7 @@
         <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>80</v>
@@ -2594,7 +2594,7 @@
         <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>79</v>
@@ -2603,7 +2603,7 @@
         <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>80</v>
@@ -2617,7 +2617,7 @@
         <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>79</v>
@@ -2626,7 +2626,7 @@
         <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>80</v>
@@ -2640,7 +2640,7 @@
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>79</v>
@@ -2649,7 +2649,7 @@
         <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>80</v>
@@ -2669,7 +2669,7 @@
         <v>79</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2683,7 +2683,7 @@
         <v>78</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2692,7 +2692,7 @@
         <v>79</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2706,19 @@
         <v>78</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>81</v>
@@ -2729,7 +2729,7 @@
         <v>78</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2738,7 +2738,7 @@
         <v>79</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2752,7 +2752,7 @@
         <v>78</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2761,7 +2761,7 @@
         <v>79</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2775,7 +2775,7 @@
         <v>78</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2784,7 +2784,7 @@
         <v>79</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2798,10 +2798,10 @@
         <v>78</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>79</v>
@@ -2824,7 +2824,7 @@
         <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>79</v>
@@ -2847,7 +2847,7 @@
         <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>79</v>
@@ -2870,7 +2870,7 @@
         <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>79</v>
@@ -2893,7 +2893,7 @@
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>79</v>
@@ -2916,7 +2916,7 @@
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>79</v>
@@ -2925,7 +2925,7 @@
         <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>81</v>
@@ -2939,7 +2939,7 @@
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>79</v>
@@ -2962,7 +2962,7 @@
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>79</v>
@@ -2971,7 +2971,7 @@
         <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>81</v>
@@ -2985,7 +2985,7 @@
         <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>79</v>
@@ -3008,7 +3008,7 @@
         <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>79</v>
@@ -3017,7 +3017,7 @@
         <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>81</v>
@@ -3031,7 +3031,7 @@
         <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>79</v>
@@ -3054,7 +3054,7 @@
         <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>79</v>
@@ -3063,7 +3063,7 @@
         <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>81</v>
@@ -3077,7 +3077,7 @@
         <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>79</v>
@@ -3086,7 +3086,7 @@
         <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>81</v>
@@ -3163,154 +3163,154 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>43</v>
@@ -3319,21 +3319,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>45</v>
@@ -3342,21 +3342,21 @@
         <v>13</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>47</v>
@@ -3365,21 +3365,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>49</v>
@@ -3388,21 +3388,21 @@
         <v>13</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>51</v>
@@ -3411,21 +3411,21 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -3434,21 +3434,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -3457,21 +3457,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
@@ -3480,21 +3480,21 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
@@ -3503,44 +3503,44 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>63</v>
@@ -3549,67 +3549,67 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>69</v>
@@ -3618,21 +3618,21 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -3641,21 +3641,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -3664,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142">
@@ -3675,19 +3675,19 @@
         <v>27</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143">
@@ -3695,22 +3695,22 @@
         <v>82</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144">
@@ -3718,22 +3718,22 @@
         <v>82</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145">
@@ -3741,22 +3741,22 @@
         <v>82</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146">
@@ -3764,22 +3764,22 @@
         <v>82</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147">
@@ -3787,22 +3787,22 @@
         <v>82</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148">
@@ -3810,10 +3810,10 @@
         <v>82</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>83</v>
@@ -3825,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149">
@@ -3836,7 +3836,7 @@
         <v>44</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>83</v>
@@ -3848,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150">
@@ -3859,7 +3859,7 @@
         <v>46</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>83</v>
@@ -3871,7 +3871,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151">
@@ -3882,7 +3882,7 @@
         <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>83</v>
@@ -3894,7 +3894,7 @@
         <v>13</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152">
@@ -3905,7 +3905,7 @@
         <v>50</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>83</v>
@@ -3917,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153">
@@ -3928,7 +3928,7 @@
         <v>52</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>83</v>
@@ -3937,10 +3937,10 @@
         <v>53</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154">
@@ -3951,7 +3951,7 @@
         <v>54</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>83</v>
@@ -3963,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155">
@@ -3974,7 +3974,7 @@
         <v>56</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>83</v>
@@ -3983,10 +3983,10 @@
         <v>57</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156">
@@ -3997,7 +3997,7 @@
         <v>58</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>83</v>
@@ -4009,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157">
@@ -4020,7 +4020,7 @@
         <v>60</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>83</v>
@@ -4029,10 +4029,10 @@
         <v>61</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158">
@@ -4043,7 +4043,7 @@
         <v>62</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>83</v>
@@ -4055,7 +4055,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159">
@@ -4066,7 +4066,7 @@
         <v>64</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>83</v>
@@ -4075,10 +4075,10 @@
         <v>65</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160">
@@ -4089,7 +4089,7 @@
         <v>66</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>83</v>
@@ -4098,10 +4098,10 @@
         <v>67</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161">
@@ -4112,7 +4112,7 @@
         <v>68</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>83</v>
@@ -4121,10 +4121,10 @@
         <v>69</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162">
@@ -4135,7 +4135,7 @@
         <v>70</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>83</v>
@@ -4144,10 +4144,10 @@
         <v>71</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163">
@@ -4158,7 +4158,7 @@
         <v>72</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>83</v>
@@ -4167,768 +4167,262 @@
         <v>73</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -53,7 +53,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192-bis</t>
+    <t>192.10</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -41,19 +41,25 @@
     <t>Richiesta di trascrizione</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoDichiarazione,=,3</t>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
-    <t>192.10</t>
+    <t>192-bis</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -138,9 +144,6 @@
   </si>
   <si>
     <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>idProvinciaNascita</t>
@@ -421,7 +424,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +478,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -495,13 +498,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -536,3894 +539,3894 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -4161,7 +4161,7 @@
         <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>84</v>
@@ -4299,7 +4299,7 @@
         <v>99</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>89</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -297,6 +303,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -412,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -881,7 +890,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>32</v>
@@ -1079,7 +1088,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>30</v>
@@ -1142,3216 +1151,3216 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4362,19 +4371,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4385,19 +4394,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4408,24 +4417,208 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,19 +239,22 @@
     <t>flagComparente</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,=,2</t>
+  </si>
+  <si>
     <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,=,2</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
@@ -1683,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1721,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -1744,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -1767,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -1790,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -1813,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -1836,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -1859,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -1882,7 +1885,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
@@ -1905,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
@@ -1928,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -1951,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
@@ -1974,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
@@ -1997,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
@@ -2020,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
@@ -2043,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
@@ -2066,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
@@ -2089,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
@@ -2112,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
@@ -2135,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
@@ -2158,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -2181,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
@@ -2204,7 +2207,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
@@ -2227,12 +2230,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>29</v>
@@ -2241,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>31</v>
@@ -2250,12 +2253,12 @@
         <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>33</v>
@@ -2264,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>34</v>
@@ -2273,12 +2276,12 @@
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>35</v>
@@ -2287,7 +2290,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>36</v>
@@ -2296,12 +2299,12 @@
         <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>37</v>
@@ -2310,7 +2313,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>38</v>
@@ -2319,12 +2322,12 @@
         <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>39</v>
@@ -2333,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>40</v>
@@ -2342,12 +2345,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>41</v>
@@ -2356,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>42</v>
@@ -2365,12 +2368,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>43</v>
@@ -2379,7 +2382,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>44</v>
@@ -2388,12 +2391,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>45</v>
@@ -2402,7 +2405,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>46</v>
@@ -2411,12 +2414,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>47</v>
@@ -2425,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>48</v>
@@ -2434,12 +2437,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>49</v>
@@ -2448,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>50</v>
@@ -2457,12 +2460,12 @@
         <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>51</v>
@@ -2471,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>52</v>
@@ -2480,12 +2483,12 @@
         <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>53</v>
@@ -2494,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>54</v>
@@ -2503,12 +2506,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>55</v>
@@ -2517,7 +2520,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>56</v>
@@ -2526,12 +2529,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>57</v>
@@ -2540,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>58</v>
@@ -2549,12 +2552,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>59</v>
@@ -2563,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>60</v>
@@ -2572,12 +2575,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>61</v>
@@ -2586,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>62</v>
@@ -2595,12 +2598,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>63</v>
@@ -2609,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>64</v>
@@ -2618,12 +2621,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>65</v>
@@ -2632,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>66</v>
@@ -2641,12 +2644,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>67</v>
@@ -2655,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>68</v>
@@ -2664,12 +2667,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>69</v>
@@ -2678,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>70</v>
@@ -2687,12 +2690,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>71</v>
@@ -2701,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>72</v>
@@ -2710,12 +2713,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>73</v>
@@ -2724,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>74</v>
@@ -2733,21 +2736,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>76</v>
@@ -2756,12 +2759,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>29</v>
@@ -2770,7 +2773,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>31</v>
@@ -2779,12 +2782,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>33</v>
@@ -2793,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>34</v>
@@ -2802,12 +2805,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>35</v>
@@ -2816,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>36</v>
@@ -2825,12 +2828,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>37</v>
@@ -2839,7 +2842,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>38</v>
@@ -2848,12 +2851,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>39</v>
@@ -2862,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>40</v>
@@ -2871,12 +2874,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>41</v>
@@ -2885,7 +2888,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>42</v>
@@ -2894,12 +2897,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>43</v>
@@ -2908,7 +2911,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>44</v>
@@ -2917,12 +2920,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>45</v>
@@ -2931,7 +2934,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>46</v>
@@ -2940,12 +2943,12 @@
         <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>47</v>
@@ -2954,7 +2957,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>48</v>
@@ -2963,12 +2966,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>49</v>
@@ -2977,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>50</v>
@@ -2986,12 +2989,12 @@
         <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>51</v>
@@ -3000,7 +3003,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>52</v>
@@ -3009,12 +3012,12 @@
         <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>53</v>
@@ -3023,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>54</v>
@@ -3032,12 +3035,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>55</v>
@@ -3046,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>56</v>
@@ -3055,12 +3058,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>57</v>
@@ -3069,7 +3072,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>58</v>
@@ -3078,12 +3081,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>59</v>
@@ -3092,7 +3095,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>60</v>
@@ -3101,12 +3104,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>61</v>
@@ -3115,7 +3118,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>62</v>
@@ -3124,12 +3127,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>63</v>
@@ -3138,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>64</v>
@@ -3147,12 +3150,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>65</v>
@@ -3161,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>66</v>
@@ -3170,12 +3173,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>67</v>
@@ -3184,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>68</v>
@@ -3193,12 +3196,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>69</v>
@@ -3207,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>70</v>
@@ -3216,12 +3219,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>71</v>
@@ -3230,7 +3233,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>72</v>
@@ -3239,12 +3242,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>73</v>
@@ -3253,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>74</v>
@@ -3262,12 +3265,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>75</v>
@@ -3276,7 +3279,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>76</v>
@@ -3285,12 +3288,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>29</v>
@@ -3299,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>31</v>
@@ -3308,12 +3311,12 @@
         <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>33</v>
@@ -3322,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>34</v>
@@ -3331,12 +3334,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>35</v>
@@ -3345,7 +3348,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>36</v>
@@ -3354,12 +3357,12 @@
         <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>37</v>
@@ -3368,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>38</v>
@@ -3377,12 +3380,12 @@
         <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>39</v>
@@ -3391,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>40</v>
@@ -3400,12 +3403,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>41</v>
@@ -3414,7 +3417,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>42</v>
@@ -3423,12 +3426,12 @@
         <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>43</v>
@@ -3437,7 +3440,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>44</v>
@@ -3446,12 +3449,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>45</v>
@@ -3460,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>46</v>
@@ -3469,12 +3472,12 @@
         <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>47</v>
@@ -3483,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>48</v>
@@ -3492,12 +3495,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>49</v>
@@ -3506,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>50</v>
@@ -3515,12 +3518,12 @@
         <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>51</v>
@@ -3529,7 +3532,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>52</v>
@@ -3538,12 +3541,12 @@
         <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>53</v>
@@ -3552,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>54</v>
@@ -3561,12 +3564,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>55</v>
@@ -3575,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>56</v>
@@ -3584,12 +3587,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>57</v>
@@ -3598,7 +3601,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>58</v>
@@ -3607,12 +3610,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>59</v>
@@ -3621,7 +3624,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>60</v>
@@ -3630,12 +3633,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>61</v>
@@ -3644,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>62</v>
@@ -3653,12 +3656,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>63</v>
@@ -3667,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>64</v>
@@ -3676,12 +3679,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>65</v>
@@ -3690,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>66</v>
@@ -3699,12 +3702,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>67</v>
@@ -3713,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>68</v>
@@ -3722,12 +3725,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>69</v>
@@ -3736,7 +3739,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>70</v>
@@ -3745,12 +3748,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>71</v>
@@ -3759,7 +3762,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>72</v>
@@ -3768,12 +3771,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>73</v>
@@ -3782,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>74</v>
@@ -3791,21 +3794,21 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>76</v>
@@ -3814,12 +3817,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>29</v>
@@ -3828,7 +3831,7 @@
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>31</v>
@@ -3837,12 +3840,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>33</v>
@@ -3851,7 +3854,7 @@
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>34</v>
@@ -3860,12 +3863,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>35</v>
@@ -3874,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>36</v>
@@ -3883,12 +3886,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>37</v>
@@ -3897,7 +3900,7 @@
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>38</v>
@@ -3906,12 +3909,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>39</v>
@@ -3920,7 +3923,7 @@
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>40</v>
@@ -3929,12 +3932,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>41</v>
@@ -3943,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>42</v>
@@ -3952,12 +3955,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>43</v>
@@ -3966,7 +3969,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>44</v>
@@ -3975,12 +3978,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>45</v>
@@ -3989,7 +3992,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>46</v>
@@ -3998,12 +4001,12 @@
         <v>15</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>47</v>
@@ -4012,7 +4015,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>48</v>
@@ -4021,12 +4024,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>49</v>
@@ -4035,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>50</v>
@@ -4044,12 +4047,12 @@
         <v>15</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>51</v>
@@ -4058,7 +4061,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>52</v>
@@ -4067,12 +4070,12 @@
         <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>53</v>
@@ -4081,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>54</v>
@@ -4090,12 +4093,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>55</v>
@@ -4104,7 +4107,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>56</v>
@@ -4113,12 +4116,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>57</v>
@@ -4127,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>58</v>
@@ -4136,12 +4139,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>59</v>
@@ -4150,7 +4153,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>60</v>
@@ -4159,12 +4162,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>61</v>
@@ -4173,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>62</v>
@@ -4182,12 +4185,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>63</v>
@@ -4196,7 +4199,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>64</v>
@@ -4205,12 +4208,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>65</v>
@@ -4219,7 +4222,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>66</v>
@@ -4228,12 +4231,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>67</v>
@@ -4242,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>68</v>
@@ -4251,12 +4254,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>69</v>
@@ -4265,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>70</v>
@@ -4274,12 +4277,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>71</v>
@@ -4288,7 +4291,7 @@
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>72</v>
@@ -4297,12 +4300,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>73</v>
@@ -4311,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>74</v>
@@ -4320,12 +4323,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>75</v>
@@ -4334,7 +4337,7 @@
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>76</v>
@@ -4343,24 +4346,24 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4371,19 +4374,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4394,19 +4397,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>51</v>
@@ -4426,10 +4429,10 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4440,19 +4443,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4463,19 +4466,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4486,19 +4489,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4509,19 +4512,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4532,19 +4535,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4555,19 +4558,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4578,19 +4581,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4601,19 +4604,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,7 +239,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,=,2</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
@@ -1686,7 +1683,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1724,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -1747,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -1770,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -1793,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -1816,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -1839,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -1862,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
@@ -1885,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
@@ -1908,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
@@ -1931,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -1954,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
@@ -1977,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
@@ -2000,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
@@ -2023,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -2046,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
@@ -2069,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
@@ -2092,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
@@ -2115,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -2138,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
@@ -2161,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -2184,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
@@ -2207,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
@@ -2230,12 +2227,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>29</v>
@@ -2244,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>31</v>
@@ -2253,12 +2250,12 @@
         <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>33</v>
@@ -2267,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>34</v>
@@ -2276,12 +2273,12 @@
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>35</v>
@@ -2290,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>36</v>
@@ -2299,12 +2296,12 @@
         <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>37</v>
@@ -2313,7 +2310,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>38</v>
@@ -2322,12 +2319,12 @@
         <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>39</v>
@@ -2336,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>40</v>
@@ -2345,12 +2342,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>41</v>
@@ -2359,7 +2356,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>42</v>
@@ -2368,12 +2365,12 @@
         <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>43</v>
@@ -2382,7 +2379,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>44</v>
@@ -2391,12 +2388,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>45</v>
@@ -2405,7 +2402,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>46</v>
@@ -2414,12 +2411,12 @@
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>47</v>
@@ -2428,7 +2425,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>48</v>
@@ -2437,12 +2434,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>49</v>
@@ -2451,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>50</v>
@@ -2460,12 +2457,12 @@
         <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>51</v>
@@ -2474,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>52</v>
@@ -2483,12 +2480,12 @@
         <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>53</v>
@@ -2497,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>54</v>
@@ -2506,12 +2503,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>55</v>
@@ -2520,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>56</v>
@@ -2529,12 +2526,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>57</v>
@@ -2543,7 +2540,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>58</v>
@@ -2552,12 +2549,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>59</v>
@@ -2566,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>60</v>
@@ -2575,12 +2572,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>61</v>
@@ -2589,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>62</v>
@@ -2598,12 +2595,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>63</v>
@@ -2612,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>64</v>
@@ -2621,12 +2618,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>65</v>
@@ -2635,7 +2632,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>66</v>
@@ -2644,12 +2641,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>67</v>
@@ -2658,7 +2655,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>68</v>
@@ -2667,12 +2664,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>69</v>
@@ -2681,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>70</v>
@@ -2690,12 +2687,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>71</v>
@@ -2704,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>72</v>
@@ -2713,12 +2710,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>73</v>
@@ -2727,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>74</v>
@@ -2736,21 +2733,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>76</v>
@@ -2759,12 +2756,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>29</v>
@@ -2773,7 +2770,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>31</v>
@@ -2782,12 +2779,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>33</v>
@@ -2796,7 +2793,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>34</v>
@@ -2805,12 +2802,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>35</v>
@@ -2819,7 +2816,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>36</v>
@@ -2828,12 +2825,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>37</v>
@@ -2842,7 +2839,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>38</v>
@@ -2851,12 +2848,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>39</v>
@@ -2865,7 +2862,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>40</v>
@@ -2874,12 +2871,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>41</v>
@@ -2888,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>42</v>
@@ -2897,12 +2894,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>43</v>
@@ -2911,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>44</v>
@@ -2920,12 +2917,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>45</v>
@@ -2934,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>46</v>
@@ -2943,12 +2940,12 @@
         <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>47</v>
@@ -2957,7 +2954,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>48</v>
@@ -2966,12 +2963,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>49</v>
@@ -2980,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>50</v>
@@ -2989,12 +2986,12 @@
         <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>51</v>
@@ -3003,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>52</v>
@@ -3012,12 +3009,12 @@
         <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>53</v>
@@ -3026,7 +3023,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>54</v>
@@ -3035,12 +3032,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>55</v>
@@ -3049,7 +3046,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>56</v>
@@ -3058,12 +3055,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>57</v>
@@ -3072,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>58</v>
@@ -3081,12 +3078,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>59</v>
@@ -3095,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>60</v>
@@ -3104,12 +3101,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>61</v>
@@ -3118,7 +3115,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>62</v>
@@ -3127,12 +3124,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>63</v>
@@ -3141,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>64</v>
@@ -3150,12 +3147,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>65</v>
@@ -3164,7 +3161,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>66</v>
@@ -3173,12 +3170,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>67</v>
@@ -3187,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>68</v>
@@ -3196,12 +3193,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>69</v>
@@ -3210,7 +3207,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>70</v>
@@ -3219,12 +3216,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>71</v>
@@ -3233,7 +3230,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>72</v>
@@ -3242,12 +3239,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>73</v>
@@ -3256,7 +3253,7 @@
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>74</v>
@@ -3265,12 +3262,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>75</v>
@@ -3279,7 +3276,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>76</v>
@@ -3288,12 +3285,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>29</v>
@@ -3302,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>31</v>
@@ -3311,12 +3308,12 @@
         <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>33</v>
@@ -3325,7 +3322,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>34</v>
@@ -3334,12 +3331,12 @@
         <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>35</v>
@@ -3348,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>36</v>
@@ -3357,12 +3354,12 @@
         <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>37</v>
@@ -3371,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>38</v>
@@ -3380,12 +3377,12 @@
         <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>39</v>
@@ -3394,7 +3391,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>40</v>
@@ -3403,12 +3400,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>41</v>
@@ -3417,7 +3414,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>42</v>
@@ -3426,12 +3423,12 @@
         <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>43</v>
@@ -3440,7 +3437,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>44</v>
@@ -3449,12 +3446,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>45</v>
@@ -3463,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>46</v>
@@ -3472,12 +3469,12 @@
         <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>47</v>
@@ -3486,7 +3483,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>48</v>
@@ -3495,12 +3492,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>49</v>
@@ -3509,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>50</v>
@@ -3518,12 +3515,12 @@
         <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>51</v>
@@ -3532,7 +3529,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>52</v>
@@ -3541,12 +3538,12 @@
         <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>53</v>
@@ -3555,7 +3552,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>54</v>
@@ -3564,12 +3561,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>55</v>
@@ -3578,7 +3575,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>56</v>
@@ -3587,12 +3584,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>57</v>
@@ -3601,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>58</v>
@@ -3610,12 +3607,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>59</v>
@@ -3624,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>60</v>
@@ -3633,12 +3630,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>61</v>
@@ -3647,7 +3644,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>62</v>
@@ -3656,12 +3653,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>63</v>
@@ -3670,7 +3667,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>64</v>
@@ -3679,12 +3676,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>65</v>
@@ -3693,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>66</v>
@@ -3702,12 +3699,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>67</v>
@@ -3716,7 +3713,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>68</v>
@@ -3725,12 +3722,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>69</v>
@@ -3739,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>70</v>
@@ -3748,12 +3745,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>71</v>
@@ -3762,7 +3759,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>72</v>
@@ -3771,12 +3768,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>73</v>
@@ -3785,7 +3782,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>74</v>
@@ -3794,21 +3791,21 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>76</v>
@@ -3817,12 +3814,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>29</v>
@@ -3831,7 +3828,7 @@
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>31</v>
@@ -3840,12 +3837,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>33</v>
@@ -3854,7 +3851,7 @@
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>34</v>
@@ -3863,12 +3860,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>35</v>
@@ -3877,7 +3874,7 @@
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>36</v>
@@ -3886,12 +3883,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>37</v>
@@ -3900,7 +3897,7 @@
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>38</v>
@@ -3909,12 +3906,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>39</v>
@@ -3923,7 +3920,7 @@
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>40</v>
@@ -3932,12 +3929,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>41</v>
@@ -3946,7 +3943,7 @@
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>42</v>
@@ -3955,12 +3952,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>43</v>
@@ -3969,7 +3966,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>44</v>
@@ -3978,12 +3975,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>45</v>
@@ -3992,7 +3989,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>46</v>
@@ -4001,12 +3998,12 @@
         <v>15</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>47</v>
@@ -4015,7 +4012,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>48</v>
@@ -4024,12 +4021,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>49</v>
@@ -4038,7 +4035,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>50</v>
@@ -4047,12 +4044,12 @@
         <v>15</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>51</v>
@@ -4061,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>52</v>
@@ -4070,12 +4067,12 @@
         <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>53</v>
@@ -4084,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>54</v>
@@ -4093,12 +4090,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>55</v>
@@ -4107,7 +4104,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>56</v>
@@ -4116,12 +4113,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>57</v>
@@ -4130,7 +4127,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>58</v>
@@ -4139,12 +4136,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>59</v>
@@ -4153,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>60</v>
@@ -4162,12 +4159,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>61</v>
@@ -4176,7 +4173,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>62</v>
@@ -4185,12 +4182,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>63</v>
@@ -4199,7 +4196,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>64</v>
@@ -4208,12 +4205,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>65</v>
@@ -4222,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>66</v>
@@ -4231,12 +4228,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>67</v>
@@ -4245,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>68</v>
@@ -4254,12 +4251,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>69</v>
@@ -4268,7 +4265,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>70</v>
@@ -4277,12 +4274,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>71</v>
@@ -4291,7 +4288,7 @@
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>72</v>
@@ -4300,12 +4297,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>73</v>
@@ -4314,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>74</v>
@@ -4323,12 +4320,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>75</v>
@@ -4337,7 +4334,7 @@
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>76</v>
@@ -4346,24 +4343,24 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4374,19 +4371,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4397,19 +4394,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4420,7 +4417,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>51</v>
@@ -4429,10 +4426,10 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4443,19 +4440,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4466,19 +4463,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4489,19 +4486,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4512,19 +4509,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4535,19 +4532,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4558,19 +4555,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4581,19 +4578,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4604,19 +4601,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,36 @@
   </si>
   <si>
     <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
@@ -424,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -434,7 +464,7 @@
     <col min="2" max="2" width="44.265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.6484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1709,22 +1739,22 @@
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -1732,22 +1762,22 @@
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -1755,22 +1785,22 @@
         <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
@@ -1778,22 +1808,22 @@
         <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -1801,22 +1831,22 @@
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -1824,7 +1854,7 @@
         <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
@@ -1833,13 +1863,13 @@
         <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
@@ -1847,22 +1877,22 @@
         <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
@@ -1870,22 +1900,22 @@
         <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
@@ -1893,22 +1923,22 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
@@ -1916,22 +1946,22 @@
         <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -1939,22 +1969,22 @@
         <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
@@ -1962,7 +1992,7 @@
         <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -1971,13 +2001,13 @@
         <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
@@ -1985,7 +2015,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -1994,13 +2024,13 @@
         <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
@@ -2008,7 +2038,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2017,13 +2047,13 @@
         <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
@@ -2031,7 +2061,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2040,13 +2070,13 @@
         <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
@@ -2054,7 +2084,7 @@
         <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2063,13 +2093,13 @@
         <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
@@ -2077,7 +2107,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2086,13 +2116,13 @@
         <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -2100,7 +2130,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2109,13 +2139,13 @@
         <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -2123,7 +2153,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2132,13 +2162,13 @@
         <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
@@ -2146,7 +2176,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2155,13 +2185,13 @@
         <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -2169,22 +2199,22 @@
         <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77">
@@ -2192,22 +2222,22 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
@@ -2215,2413 +2245,3011 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E182" s="2" t="s">
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
+      <c r="E204" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -3996,7 +3996,7 @@
         <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>97</v>
@@ -4019,7 +4019,7 @@
         <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>97</v>
@@ -4042,7 +4042,7 @@
         <v>57</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>97</v>
@@ -4065,7 +4065,7 @@
         <v>59</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>97</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192-bis</t>
+    <t>192.10</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -119,6 +119,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -173,13 +179,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -730,7 +736,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -822,7 +828,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -854,7 +860,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>32</v>
@@ -877,7 +883,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>32</v>
@@ -900,7 +906,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>32</v>
@@ -946,7 +952,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>32</v>
@@ -1144,7 +1150,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1207,3952 +1213,3952 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5163,19 +5169,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5186,19 +5192,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5209,19 +5215,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5232,24 +5238,185 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E208" s="2" t="s">
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1173,7 +1179,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1236,4090 +1242,4090 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5330,19 +5336,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5353,19 +5359,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5376,19 +5382,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5399,24 +5405,185 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E215" s="2" t="s">
+      <c r="C221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1202,7 +1208,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1265,4228 +1271,4228 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5497,19 +5503,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5520,19 +5526,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5543,19 +5549,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5566,24 +5572,185 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E222" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Sentenza di riconoscimento giudiziale della cittadinanza italiana</t>
   </si>
   <si>
     <t>Formula</t>
@@ -472,14 +475,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="57.91015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -558,1341 +561,1341 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>87</v>
@@ -1901,1401 +1904,1401 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3304,125 +3307,125 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3433,1376 +3436,1376 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -4813,752 +4816,752 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>114</v>
@@ -5567,191 +5570,214 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>21</v>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4819,22 +4825,22 @@
         <v>103</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190">
@@ -4842,7 +4848,7 @@
         <v>103</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>13</v>
@@ -4851,13 +4857,13 @@
         <v>104</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="191">
@@ -4865,22 +4871,22 @@
         <v>103</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="192">
@@ -4888,22 +4894,22 @@
         <v>103</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193">
@@ -4911,7 +4917,7 @@
         <v>103</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
@@ -4920,13 +4926,13 @@
         <v>104</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="194">
@@ -4934,7 +4940,7 @@
         <v>103</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
@@ -4943,13 +4949,13 @@
         <v>104</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195">
@@ -4957,7 +4963,7 @@
         <v>103</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>13</v>
@@ -4966,13 +4972,13 @@
         <v>104</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196">
@@ -4980,22 +4986,22 @@
         <v>103</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197">
@@ -5003,7 +5009,7 @@
         <v>103</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5012,13 +5018,13 @@
         <v>104</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198">
@@ -5026,7 +5032,7 @@
         <v>103</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5035,13 +5041,13 @@
         <v>104</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199">
@@ -5049,7 +5055,7 @@
         <v>103</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5058,13 +5064,13 @@
         <v>104</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200">
@@ -5072,7 +5078,7 @@
         <v>103</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5081,13 +5087,13 @@
         <v>104</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="201">
@@ -5095,7 +5101,7 @@
         <v>103</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5104,13 +5110,13 @@
         <v>104</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202">
@@ -5118,7 +5124,7 @@
         <v>103</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5127,13 +5133,13 @@
         <v>104</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203">
@@ -5141,7 +5147,7 @@
         <v>103</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5150,13 +5156,13 @@
         <v>104</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204">
@@ -5164,7 +5170,7 @@
         <v>103</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5173,13 +5179,13 @@
         <v>104</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205">
@@ -5187,7 +5193,7 @@
         <v>103</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5196,13 +5202,13 @@
         <v>104</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206">
@@ -5210,7 +5216,7 @@
         <v>103</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5219,13 +5225,13 @@
         <v>104</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="207">
@@ -5233,7 +5239,7 @@
         <v>103</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5242,13 +5248,13 @@
         <v>104</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="208">
@@ -5256,7 +5262,7 @@
         <v>103</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5265,13 +5271,13 @@
         <v>104</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="209">
@@ -5279,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5288,13 +5294,13 @@
         <v>104</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210">
@@ -5302,7 +5308,7 @@
         <v>103</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5311,13 +5317,13 @@
         <v>104</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="211">
@@ -5325,7 +5331,7 @@
         <v>103</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5334,13 +5340,13 @@
         <v>104</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="212">
@@ -5348,22 +5354,22 @@
         <v>103</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="213">
@@ -5371,22 +5377,22 @@
         <v>103</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="214">
@@ -5394,22 +5400,22 @@
         <v>103</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="215">
@@ -5417,22 +5423,22 @@
         <v>103</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="216">
@@ -5440,7 +5446,7 @@
         <v>103</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5449,13 +5455,13 @@
         <v>104</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="217">
@@ -5463,7 +5469,7 @@
         <v>103</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5472,13 +5478,13 @@
         <v>104</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="218">
@@ -5486,7 +5492,7 @@
         <v>103</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5495,76 +5501,76 @@
         <v>104</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5575,19 +5581,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5598,19 +5604,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5621,19 +5627,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5644,19 +5650,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5667,19 +5673,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5690,19 +5696,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -5713,19 +5719,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5736,19 +5742,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
@@ -5759,24 +5765,70 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="C230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E230" s="2" t="s">
+      <c r="C231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -330,12 +330,6 @@
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,=,3</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
@@ -481,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4825,22 +4819,22 @@
         <v>103</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="190">
@@ -4848,7 +4842,7 @@
         <v>103</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>13</v>
@@ -4857,13 +4851,13 @@
         <v>104</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="191">
@@ -4871,22 +4865,22 @@
         <v>103</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192">
@@ -4894,22 +4888,22 @@
         <v>103</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193">
@@ -4917,7 +4911,7 @@
         <v>103</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
@@ -4926,13 +4920,13 @@
         <v>104</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194">
@@ -4940,7 +4934,7 @@
         <v>103</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
@@ -4949,13 +4943,13 @@
         <v>104</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195">
@@ -4963,7 +4957,7 @@
         <v>103</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>13</v>
@@ -4972,13 +4966,13 @@
         <v>104</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196">
@@ -4986,22 +4980,22 @@
         <v>103</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197">
@@ -5009,7 +5003,7 @@
         <v>103</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5018,13 +5012,13 @@
         <v>104</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198">
@@ -5032,7 +5026,7 @@
         <v>103</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5041,13 +5035,13 @@
         <v>104</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="199">
@@ -5055,7 +5049,7 @@
         <v>103</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5064,13 +5058,13 @@
         <v>104</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200">
@@ -5078,7 +5072,7 @@
         <v>103</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5087,13 +5081,13 @@
         <v>104</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201">
@@ -5101,7 +5095,7 @@
         <v>103</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5110,13 +5104,13 @@
         <v>104</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202">
@@ -5124,7 +5118,7 @@
         <v>103</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5133,13 +5127,13 @@
         <v>104</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="203">
@@ -5147,7 +5141,7 @@
         <v>103</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5156,13 +5150,13 @@
         <v>104</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="204">
@@ -5170,7 +5164,7 @@
         <v>103</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5179,13 +5173,13 @@
         <v>104</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205">
@@ -5193,7 +5187,7 @@
         <v>103</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5202,13 +5196,13 @@
         <v>104</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="206">
@@ -5216,7 +5210,7 @@
         <v>103</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5225,13 +5219,13 @@
         <v>104</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207">
@@ -5239,7 +5233,7 @@
         <v>103</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5248,13 +5242,13 @@
         <v>104</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208">
@@ -5262,7 +5256,7 @@
         <v>103</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5271,13 +5265,13 @@
         <v>104</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209">
@@ -5285,7 +5279,7 @@
         <v>103</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5294,13 +5288,13 @@
         <v>104</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210">
@@ -5308,7 +5302,7 @@
         <v>103</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5317,13 +5311,13 @@
         <v>104</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211">
@@ -5331,7 +5325,7 @@
         <v>103</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5340,13 +5334,13 @@
         <v>104</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212">
@@ -5354,22 +5348,22 @@
         <v>103</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213">
@@ -5377,22 +5371,22 @@
         <v>103</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="214">
@@ -5400,22 +5394,22 @@
         <v>103</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215">
@@ -5423,22 +5417,22 @@
         <v>103</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="216">
@@ -5446,7 +5440,7 @@
         <v>103</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5455,13 +5449,13 @@
         <v>104</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217">
@@ -5469,7 +5463,7 @@
         <v>103</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5478,13 +5472,13 @@
         <v>104</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="218">
@@ -5492,7 +5486,7 @@
         <v>103</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5501,76 +5495,76 @@
         <v>104</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5581,19 +5575,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5604,19 +5598,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5627,19 +5621,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E224" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5650,19 +5644,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E225" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5673,19 +5667,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5696,19 +5690,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -5719,19 +5713,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E228" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5742,19 +5736,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
@@ -5765,70 +5759,24 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -481,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -826,7 +838,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -849,7 +861,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -895,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -918,7 +930,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -927,7 +939,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>33</v>
@@ -996,7 +1008,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>33</v>
@@ -1019,7 +1031,7 @@
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>33</v>
@@ -1042,7 +1054,7 @@
         <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>33</v>
@@ -1263,7 +1275,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>31</v>
@@ -1286,7 +1298,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>31</v>
@@ -1326,2808 +1338,2808 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="159">
@@ -4135,7 +4147,7 @@
         <v>103</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4144,13 +4156,13 @@
         <v>104</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160">
@@ -4158,22 +4170,22 @@
         <v>103</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161">
@@ -4181,7 +4193,7 @@
         <v>103</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4190,13 +4202,13 @@
         <v>104</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162">
@@ -4204,7 +4216,7 @@
         <v>103</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
@@ -4213,13 +4225,13 @@
         <v>104</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163">
@@ -4227,7 +4239,7 @@
         <v>103</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
@@ -4236,13 +4248,13 @@
         <v>104</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164">
@@ -4250,7 +4262,7 @@
         <v>103</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
@@ -4259,13 +4271,13 @@
         <v>104</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165">
@@ -4273,22 +4285,22 @@
         <v>103</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166">
@@ -4296,7 +4308,7 @@
         <v>103</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4305,13 +4317,13 @@
         <v>104</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="167">
@@ -4319,7 +4331,7 @@
         <v>103</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4328,13 +4340,13 @@
         <v>104</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168">
@@ -4342,7 +4354,7 @@
         <v>103</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4351,1484 +4363,1806 @@
         <v>104</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E221" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C243" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E232" s="2" t="s">
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
+      <c r="B245" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>22</v>
       </c>
     </row>
